--- a/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lispacloud.sharepoint.com/sites/FSE2.0-CDA2Vaccinazioni/Documenti condivisi/General/Accreditamento DTD/Accreditamento SSV/Doc_DTD_Use Case e Checklist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lispacloud.sharepoint.com/sites/FSE2.0-CDA2Vaccinazioni/Documenti condivisi/General/Accreditamento DTD/Accreditamento SSV/File per PULL REQUEST accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD95BEA9-7281-4BC3-81F7-5429D8F7230B}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED84D3D-CED6-4039-980E-9D2BF9AFF49D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4019,30 +4019,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.eddefba9f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>272d6fc07148a642</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.e1fca82ae4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1e4492b7e923e243</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.f3b56659e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4d67034f7ffe7401</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.78247d9963^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>93c73f2a1a5bee0b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.28a356e357^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-12-18T15:16:16.269+00:00</t>
   </si>
   <si>
@@ -4089,18 +4065,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.fad7be92b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-12-18T12:17:31.709+00:00</t>
-  </si>
-  <si>
-    <t>2023-12-18T12:08:57.812+00:00</t>
-  </si>
-  <si>
-    <t>2023-12-18T12:14:02.940+00:00</t>
-  </si>
-  <si>
-    <t>2023-12-18T12:15:37.893+00:00</t>
-  </si>
-  <si>
     <t>2023-12-18T12:10:55.934+00:00</t>
   </si>
   <si>
@@ -4219,6 +4183,42 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.94542f4c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-03T11:50:01.153+00:00</t>
+  </si>
+  <si>
+    <t>4207423a74f02858</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.eec4913d13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-03T11:52:23.921+00:00</t>
+  </si>
+  <si>
+    <t>87320e680988f6e4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.091dc0e3b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-03T11:53:26.746+00:00</t>
+  </si>
+  <si>
+    <t>fd1cb1a90434c51d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.a36eab34c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-03T11:54:33.355+00:00</t>
+  </si>
+  <si>
+    <t>afab8d7e85ebdf21</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.2c799fed53^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4674,31 +4674,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -4733,6 +4708,31 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7199,7 +7199,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J396" sqref="J396"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7209,7 +7209,7 @@
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
     <col min="4" max="4" width="63.81640625" customWidth="1"/>
     <col min="5" max="5" width="104.81640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="36" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="33.1796875" customWidth="1"/>
     <col min="10" max="10" width="27.1796875" customWidth="1"/>
     <col min="11" max="15" width="36.453125" customWidth="1"/>
@@ -7221,7 +7221,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
       <c r="C1" s="4"/>
-      <c r="F1" s="46"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -7238,15 +7238,15 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -7263,15 +7263,15 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>836</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -7288,14 +7288,14 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="46"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -7312,13 +7312,13 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -7335,10 +7335,10 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="16"/>
-      <c r="F6" s="46"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -7358,7 +7358,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -7375,7 +7375,7 @@
       <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F8" s="46"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -7391,7 +7391,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="37">
+    <row r="9" spans="1:20" ht="37.5" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="E9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -8031,7 +8031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="130.5">
+    <row r="27" spans="1:20" ht="131" thickBot="1">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -8047,17 +8047,17 @@
       <c r="E27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="35">
         <v>45278</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>865</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>841</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>842</v>
+      <c r="G27" s="37" t="s">
+        <v>896</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>898</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>125</v>
@@ -8077,7 +8077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="130.5">
+    <row r="28" spans="1:20" ht="131" thickBot="1">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -8093,17 +8093,17 @@
       <c r="E28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="35">
         <v>45278</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>866</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>843</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>844</v>
+      <c r="G28" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>901</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>125</v>
@@ -8139,17 +8139,17 @@
       <c r="E29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="35">
         <v>45278</v>
       </c>
-      <c r="G29" s="50" t="s">
-        <v>867</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>845</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>846</v>
+      <c r="G29" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>904</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>125</v>
@@ -8185,17 +8185,17 @@
       <c r="E30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="35">
         <v>45278</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>864</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>847</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>848</v>
+      <c r="G30" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>907</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>125</v>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="58" t="s">
+      <c r="T30" s="45" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="54"/>
+      <c r="N40" s="41"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
@@ -8571,17 +8571,17 @@
       <c r="E41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="35">
         <v>45278</v>
       </c>
-      <c r="G41" s="50" t="s">
-        <v>849</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>850</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>855</v>
+      <c r="G41" s="37" t="s">
+        <v>841</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>847</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>125</v>
@@ -8593,12 +8593,12 @@
       <c r="M41" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="N41" s="56"/>
-      <c r="O41" s="53" t="s">
+      <c r="N41" s="43"/>
+      <c r="O41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="P41" s="52" t="s">
-        <v>851</v>
+      <c r="P41" s="39" t="s">
+        <v>843</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>832</v>
@@ -8856,17 +8856,17 @@
       <c r="E49" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="35">
         <v>45278</v>
       </c>
-      <c r="G49" s="50" t="s">
-        <v>856</v>
-      </c>
-      <c r="H49" s="50" t="s">
-        <v>857</v>
+      <c r="G49" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>849</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>125</v>
@@ -8878,12 +8878,12 @@
       <c r="M49" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="N49" s="56"/>
-      <c r="O49" s="53" t="s">
+      <c r="N49" s="43"/>
+      <c r="O49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="P49" s="52" t="s">
-        <v>851</v>
+      <c r="P49" s="39" t="s">
+        <v>843</v>
       </c>
       <c r="Q49" s="25" t="s">
         <v>832</v>
@@ -8918,7 +8918,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
-      <c r="N50" s="55"/>
+      <c r="N50" s="42"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
@@ -9144,7 +9144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="131" thickBot="1">
+    <row r="57" spans="1:20" ht="116.5" thickBot="1">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="E57" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="35">
         <v>45278</v>
       </c>
       <c r="G57" s="24"/>
@@ -9176,14 +9176,14 @@
       <c r="M57" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="N57" s="51" t="s">
-        <v>854</v>
+      <c r="N57" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="O57" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P57" s="52" t="s">
-        <v>852</v>
+      <c r="P57" s="39" t="s">
+        <v>844</v>
       </c>
       <c r="Q57" s="25" t="s">
         <v>832</v>
@@ -11102,7 +11102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="145">
+    <row r="114" spans="1:20" ht="145.5" thickBot="1">
       <c r="A114" s="20">
         <v>107</v>
       </c>
@@ -11118,17 +11118,17 @@
       <c r="E114" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F114" s="48">
+      <c r="F114" s="35">
         <v>45278</v>
       </c>
-      <c r="G114" s="50" t="s">
-        <v>858</v>
-      </c>
-      <c r="H114" s="50" t="s">
-        <v>859</v>
-      </c>
-      <c r="I114" s="50" t="s">
-        <v>860</v>
+      <c r="G114" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="H114" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="I114" s="37" t="s">
+        <v>852</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>125</v>
@@ -11144,8 +11144,8 @@
       <c r="O114" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P114" s="52" t="s">
-        <v>853</v>
+      <c r="P114" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q114" s="25" t="s">
         <v>832</v>
@@ -11156,7 +11156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="145">
+    <row r="115" spans="1:20" ht="145.5" thickBot="1">
       <c r="A115" s="20">
         <v>108</v>
       </c>
@@ -11172,17 +11172,17 @@
       <c r="E115" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F115" s="48">
+      <c r="F115" s="35">
         <v>45278</v>
       </c>
-      <c r="G115" s="50" t="s">
-        <v>861</v>
-      </c>
-      <c r="H115" s="50" t="s">
-        <v>862</v>
-      </c>
-      <c r="I115" s="50" t="s">
-        <v>863</v>
+      <c r="G115" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="H115" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="I115" s="37" t="s">
+        <v>855</v>
       </c>
       <c r="J115" s="25" t="s">
         <v>125</v>
@@ -11198,8 +11198,8 @@
       <c r="O115" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P115" s="52" t="s">
-        <v>853</v>
+      <c r="P115" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q115" s="25" t="s">
         <v>832</v>
@@ -11220,23 +11220,23 @@
       <c r="C116" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D116" s="57" t="s">
+      <c r="D116" s="44" t="s">
         <v>247</v>
       </c>
       <c r="E116" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F116" s="48">
+      <c r="F116" s="35">
         <v>45278</v>
       </c>
-      <c r="G116" s="50" t="s">
-        <v>869</v>
-      </c>
-      <c r="H116" s="50" t="s">
-        <v>870</v>
-      </c>
-      <c r="I116" s="50" t="s">
-        <v>871</v>
+      <c r="G116" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="H116" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="I116" s="37" t="s">
+        <v>859</v>
       </c>
       <c r="J116" s="25" t="s">
         <v>125</v>
@@ -11252,8 +11252,8 @@
       <c r="O116" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P116" s="52" t="s">
-        <v>853</v>
+      <c r="P116" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q116" s="25" t="s">
         <v>832</v>
@@ -11280,17 +11280,17 @@
       <c r="E117" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F117" s="48">
+      <c r="F117" s="35">
         <v>45278</v>
       </c>
-      <c r="G117" s="50" t="s">
-        <v>872</v>
-      </c>
-      <c r="H117" s="50" t="s">
-        <v>873</v>
-      </c>
-      <c r="I117" s="50" t="s">
-        <v>874</v>
+      <c r="G117" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="I117" s="37" t="s">
+        <v>862</v>
       </c>
       <c r="J117" s="25" t="s">
         <v>125</v>
@@ -11306,8 +11306,8 @@
       <c r="O117" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P117" s="52" t="s">
-        <v>853</v>
+      <c r="P117" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q117" s="25" t="s">
         <v>832</v>
@@ -11334,17 +11334,17 @@
       <c r="E118" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="F118" s="48">
+      <c r="F118" s="35">
         <v>45278</v>
       </c>
-      <c r="G118" s="50" t="s">
-        <v>875</v>
-      </c>
-      <c r="H118" s="50" t="s">
-        <v>876</v>
-      </c>
-      <c r="I118" s="50" t="s">
-        <v>877</v>
+      <c r="G118" s="37" t="s">
+        <v>863</v>
+      </c>
+      <c r="H118" s="37" t="s">
+        <v>864</v>
+      </c>
+      <c r="I118" s="37" t="s">
+        <v>865</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>125</v>
@@ -11360,8 +11360,8 @@
       <c r="O118" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P118" s="52" t="s">
-        <v>853</v>
+      <c r="P118" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q118" s="25" t="s">
         <v>832</v>
@@ -11388,17 +11388,17 @@
       <c r="E119" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F119" s="48">
+      <c r="F119" s="35">
         <v>45278</v>
       </c>
-      <c r="G119" s="50" t="s">
-        <v>878</v>
-      </c>
-      <c r="H119" s="50" t="s">
-        <v>879</v>
-      </c>
-      <c r="I119" s="50" t="s">
-        <v>880</v>
+      <c r="G119" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="H119" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="I119" s="37" t="s">
+        <v>868</v>
       </c>
       <c r="J119" s="25" t="s">
         <v>125</v>
@@ -11414,8 +11414,8 @@
       <c r="O119" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P119" s="52" t="s">
-        <v>853</v>
+      <c r="P119" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q119" s="25" t="s">
         <v>832</v>
@@ -11442,17 +11442,17 @@
       <c r="E120" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="F120" s="48">
+      <c r="F120" s="35">
         <v>45278</v>
       </c>
-      <c r="G120" s="50" t="s">
-        <v>881</v>
-      </c>
-      <c r="H120" s="50" t="s">
-        <v>882</v>
-      </c>
-      <c r="I120" s="50" t="s">
-        <v>883</v>
+      <c r="G120" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="H120" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="I120" s="37" t="s">
+        <v>871</v>
       </c>
       <c r="J120" s="25" t="s">
         <v>125</v>
@@ -11468,8 +11468,8 @@
       <c r="O120" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P120" s="52" t="s">
-        <v>853</v>
+      <c r="P120" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q120" s="25" t="s">
         <v>832</v>
@@ -11496,17 +11496,17 @@
       <c r="E121" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F121" s="48">
+      <c r="F121" s="35">
         <v>45278</v>
       </c>
-      <c r="G121" s="50" t="s">
-        <v>884</v>
-      </c>
-      <c r="H121" s="50" t="s">
-        <v>885</v>
-      </c>
-      <c r="I121" s="50" t="s">
-        <v>886</v>
+      <c r="G121" s="37" t="s">
+        <v>872</v>
+      </c>
+      <c r="H121" s="37" t="s">
+        <v>873</v>
+      </c>
+      <c r="I121" s="37" t="s">
+        <v>874</v>
       </c>
       <c r="J121" s="25" t="s">
         <v>125</v>
@@ -11522,8 +11522,8 @@
       <c r="O121" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P121" s="52" t="s">
-        <v>853</v>
+      <c r="P121" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q121" s="25" t="s">
         <v>832</v>
@@ -11550,17 +11550,17 @@
       <c r="E122" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F122" s="48">
+      <c r="F122" s="35">
         <v>45278</v>
       </c>
-      <c r="G122" s="50" t="s">
-        <v>887</v>
-      </c>
-      <c r="H122" s="50" t="s">
-        <v>888</v>
-      </c>
-      <c r="I122" s="50" t="s">
-        <v>889</v>
+      <c r="G122" s="37" t="s">
+        <v>875</v>
+      </c>
+      <c r="H122" s="37" t="s">
+        <v>876</v>
+      </c>
+      <c r="I122" s="37" t="s">
+        <v>877</v>
       </c>
       <c r="J122" s="25" t="s">
         <v>125</v>
@@ -11576,8 +11576,8 @@
       <c r="O122" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P122" s="52" t="s">
-        <v>853</v>
+      <c r="P122" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q122" s="25" t="s">
         <v>832</v>
@@ -11604,17 +11604,17 @@
       <c r="E123" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F123" s="48">
+      <c r="F123" s="35">
         <v>45278</v>
       </c>
-      <c r="G123" s="50" t="s">
-        <v>890</v>
-      </c>
-      <c r="H123" s="50" t="s">
-        <v>891</v>
-      </c>
-      <c r="I123" s="50" t="s">
-        <v>892</v>
+      <c r="G123" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="H123" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="I123" s="37" t="s">
+        <v>880</v>
       </c>
       <c r="J123" s="25" t="s">
         <v>125</v>
@@ -11630,8 +11630,8 @@
       <c r="O123" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P123" s="52" t="s">
-        <v>853</v>
+      <c r="P123" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q123" s="25" t="s">
         <v>832</v>
@@ -11658,17 +11658,17 @@
       <c r="E124" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F124" s="48">
+      <c r="F124" s="35">
         <v>45278</v>
       </c>
-      <c r="G124" s="50" t="s">
-        <v>893</v>
-      </c>
-      <c r="H124" s="50" t="s">
-        <v>894</v>
-      </c>
-      <c r="I124" s="50" t="s">
-        <v>895</v>
+      <c r="G124" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="H124" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="I124" s="37" t="s">
+        <v>883</v>
       </c>
       <c r="J124" s="25" t="s">
         <v>125</v>
@@ -11684,8 +11684,8 @@
       <c r="O124" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P124" s="52" t="s">
-        <v>853</v>
+      <c r="P124" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q124" s="25" t="s">
         <v>832</v>
@@ -11712,17 +11712,17 @@
       <c r="E125" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="35">
         <v>45278</v>
       </c>
-      <c r="G125" s="50" t="s">
-        <v>896</v>
-      </c>
-      <c r="H125" s="50" t="s">
-        <v>897</v>
-      </c>
-      <c r="I125" s="50" t="s">
-        <v>898</v>
+      <c r="G125" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="H125" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="I125" s="37" t="s">
+        <v>886</v>
       </c>
       <c r="J125" s="25" t="s">
         <v>125</v>
@@ -11738,8 +11738,8 @@
       <c r="O125" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P125" s="52" t="s">
-        <v>853</v>
+      <c r="P125" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q125" s="25" t="s">
         <v>832</v>
@@ -11766,17 +11766,17 @@
       <c r="E126" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="F126" s="48">
+      <c r="F126" s="35">
         <v>45278</v>
       </c>
-      <c r="G126" s="50" t="s">
-        <v>899</v>
-      </c>
-      <c r="H126" s="50" t="s">
-        <v>900</v>
-      </c>
-      <c r="I126" s="50" t="s">
-        <v>901</v>
+      <c r="G126" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="H126" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="I126" s="37" t="s">
+        <v>889</v>
       </c>
       <c r="J126" s="25" t="s">
         <v>125</v>
@@ -11788,12 +11788,12 @@
       <c r="M126" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="N126" s="51"/>
+      <c r="N126" s="38"/>
       <c r="O126" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P126" s="52" t="s">
-        <v>853</v>
+      <c r="P126" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q126" s="25" t="s">
         <v>832</v>
@@ -11820,17 +11820,17 @@
       <c r="E127" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F127" s="48">
+      <c r="F127" s="35">
         <v>45278</v>
       </c>
-      <c r="G127" s="50" t="s">
-        <v>902</v>
-      </c>
-      <c r="H127" s="50" t="s">
-        <v>903</v>
-      </c>
-      <c r="I127" s="50" t="s">
-        <v>904</v>
+      <c r="G127" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="H127" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="I127" s="37" t="s">
+        <v>892</v>
       </c>
       <c r="J127" s="25" t="s">
         <v>125</v>
@@ -11846,8 +11846,8 @@
       <c r="O127" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P127" s="52" t="s">
-        <v>853</v>
+      <c r="P127" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q127" s="25" t="s">
         <v>832</v>
@@ -11858,7 +11858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="145">
+    <row r="128" spans="1:20" ht="145.5" thickBot="1">
       <c r="A128" s="20">
         <v>121</v>
       </c>
@@ -11874,17 +11874,17 @@
       <c r="E128" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F128" s="48">
+      <c r="F128" s="35">
         <v>45278</v>
       </c>
-      <c r="G128" s="50" t="s">
-        <v>905</v>
-      </c>
-      <c r="H128" s="50" t="s">
-        <v>906</v>
-      </c>
-      <c r="I128" s="50" t="s">
-        <v>907</v>
+      <c r="G128" s="37" t="s">
+        <v>893</v>
+      </c>
+      <c r="H128" s="37" t="s">
+        <v>894</v>
+      </c>
+      <c r="I128" s="37" t="s">
+        <v>895</v>
       </c>
       <c r="J128" s="25" t="s">
         <v>125</v>
@@ -11900,8 +11900,8 @@
       <c r="O128" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="P128" s="52" t="s">
-        <v>853</v>
+      <c r="P128" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="Q128" s="25" t="s">
         <v>832</v>
@@ -20428,16 +20428,16 @@
       <c r="E379" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="F379" s="48">
+      <c r="F379" s="35">
         <v>45278</v>
       </c>
-      <c r="G379" s="50" t="s">
-        <v>868</v>
-      </c>
-      <c r="H379" s="50" t="s">
+      <c r="G379" s="37" t="s">
+        <v>856</v>
+      </c>
+      <c r="H379" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="I379" s="50" t="s">
+      <c r="I379" s="37" t="s">
         <v>840</v>
       </c>
       <c r="J379" s="25" t="s">
@@ -20448,7 +20448,7 @@
       <c r="M379" s="25"/>
       <c r="N379" s="25"/>
       <c r="O379" s="25"/>
-      <c r="P379" s="52"/>
+      <c r="P379" s="39"/>
       <c r="Q379" s="25" t="s">
         <v>832</v>
       </c>
@@ -20595,7 +20595,7 @@
       </c>
     </row>
     <row r="384" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F384" s="46"/>
+      <c r="F384" s="33"/>
       <c r="G384" s="12"/>
       <c r="H384" s="12"/>
       <c r="I384" s="12"/>
@@ -20612,7 +20612,7 @@
       <c r="T384" s="15"/>
     </row>
     <row r="385" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F385" s="46"/>
+      <c r="F385" s="33"/>
       <c r="G385" s="12"/>
       <c r="H385" s="12"/>
       <c r="I385" s="12"/>
@@ -20629,7 +20629,7 @@
       <c r="T385" s="15"/>
     </row>
     <row r="386" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F386" s="46"/>
+      <c r="F386" s="33"/>
       <c r="G386" s="12"/>
       <c r="H386" s="12"/>
       <c r="I386" s="12"/>
@@ -20646,7 +20646,7 @@
       <c r="T386" s="15"/>
     </row>
     <row r="387" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F387" s="46"/>
+      <c r="F387" s="33"/>
       <c r="G387" s="12"/>
       <c r="H387" s="12"/>
       <c r="I387" s="12"/>
@@ -20663,7 +20663,7 @@
       <c r="T387" s="15"/>
     </row>
     <row r="388" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F388" s="46"/>
+      <c r="F388" s="33"/>
       <c r="G388" s="12"/>
       <c r="H388" s="12"/>
       <c r="I388" s="12"/>
@@ -20680,7 +20680,7 @@
       <c r="T388" s="15"/>
     </row>
     <row r="389" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F389" s="46"/>
+      <c r="F389" s="33"/>
       <c r="G389" s="12"/>
       <c r="H389" s="12"/>
       <c r="I389" s="12"/>
@@ -20697,7 +20697,7 @@
       <c r="T389" s="15"/>
     </row>
     <row r="390" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F390" s="46"/>
+      <c r="F390" s="33"/>
       <c r="G390" s="12"/>
       <c r="H390" s="12"/>
       <c r="I390" s="12"/>
@@ -20714,7 +20714,7 @@
       <c r="T390" s="15"/>
     </row>
     <row r="391" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F391" s="46"/>
+      <c r="F391" s="33"/>
       <c r="G391" s="12"/>
       <c r="H391" s="12"/>
       <c r="I391" s="12"/>
@@ -20731,7 +20731,7 @@
       <c r="T391" s="15"/>
     </row>
     <row r="392" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F392" s="46"/>
+      <c r="F392" s="33"/>
       <c r="G392" s="12"/>
       <c r="H392" s="12"/>
       <c r="I392" s="12"/>
@@ -20748,7 +20748,7 @@
       <c r="T392" s="15"/>
     </row>
     <row r="393" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F393" s="46"/>
+      <c r="F393" s="33"/>
       <c r="G393" s="12"/>
       <c r="H393" s="12"/>
       <c r="I393" s="12"/>
@@ -20765,7 +20765,7 @@
       <c r="T393" s="15"/>
     </row>
     <row r="394" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F394" s="46"/>
+      <c r="F394" s="33"/>
       <c r="G394" s="12"/>
       <c r="H394" s="12"/>
       <c r="I394" s="12"/>
@@ -20782,7 +20782,7 @@
       <c r="T394" s="15"/>
     </row>
     <row r="395" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F395" s="46"/>
+      <c r="F395" s="33"/>
       <c r="G395" s="12"/>
       <c r="H395" s="12"/>
       <c r="I395" s="12"/>
@@ -20799,7 +20799,7 @@
       <c r="T395" s="15"/>
     </row>
     <row r="396" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F396" s="46"/>
+      <c r="F396" s="33"/>
       <c r="G396" s="12"/>
       <c r="H396" s="12"/>
       <c r="I396" s="12"/>
@@ -20816,7 +20816,7 @@
       <c r="T396" s="15"/>
     </row>
     <row r="397" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F397" s="46"/>
+      <c r="F397" s="33"/>
       <c r="G397" s="12"/>
       <c r="H397" s="12"/>
       <c r="I397" s="12"/>
@@ -20833,7 +20833,7 @@
       <c r="T397" s="15"/>
     </row>
     <row r="398" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F398" s="46"/>
+      <c r="F398" s="33"/>
       <c r="G398" s="12"/>
       <c r="H398" s="12"/>
       <c r="I398" s="12"/>
@@ -20850,7 +20850,7 @@
       <c r="T398" s="15"/>
     </row>
     <row r="399" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F399" s="46"/>
+      <c r="F399" s="33"/>
       <c r="G399" s="12"/>
       <c r="H399" s="12"/>
       <c r="I399" s="12"/>
@@ -20867,7 +20867,7 @@
       <c r="T399" s="15"/>
     </row>
     <row r="400" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F400" s="46"/>
+      <c r="F400" s="33"/>
       <c r="G400" s="12"/>
       <c r="H400" s="12"/>
       <c r="I400" s="12"/>
@@ -20884,7 +20884,7 @@
       <c r="T400" s="15"/>
     </row>
     <row r="401" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F401" s="46"/>
+      <c r="F401" s="33"/>
       <c r="G401" s="12"/>
       <c r="H401" s="12"/>
       <c r="I401" s="12"/>
@@ -20901,7 +20901,7 @@
       <c r="T401" s="15"/>
     </row>
     <row r="402" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F402" s="46"/>
+      <c r="F402" s="33"/>
       <c r="G402" s="12"/>
       <c r="H402" s="12"/>
       <c r="I402" s="12"/>
@@ -20918,7 +20918,7 @@
       <c r="T402" s="15"/>
     </row>
     <row r="403" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F403" s="46"/>
+      <c r="F403" s="33"/>
       <c r="G403" s="12"/>
       <c r="H403" s="12"/>
       <c r="I403" s="12"/>
@@ -20935,7 +20935,7 @@
       <c r="T403" s="15"/>
     </row>
     <row r="404" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F404" s="46"/>
+      <c r="F404" s="33"/>
       <c r="G404" s="12"/>
       <c r="H404" s="12"/>
       <c r="I404" s="12"/>
@@ -20952,7 +20952,7 @@
       <c r="T404" s="15"/>
     </row>
     <row r="405" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F405" s="46"/>
+      <c r="F405" s="33"/>
       <c r="G405" s="12"/>
       <c r="H405" s="12"/>
       <c r="I405" s="12"/>
@@ -20969,7 +20969,7 @@
       <c r="T405" s="15"/>
     </row>
     <row r="406" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F406" s="46"/>
+      <c r="F406" s="33"/>
       <c r="G406" s="12"/>
       <c r="H406" s="12"/>
       <c r="I406" s="12"/>
@@ -20986,7 +20986,7 @@
       <c r="T406" s="15"/>
     </row>
     <row r="407" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F407" s="46"/>
+      <c r="F407" s="33"/>
       <c r="G407" s="12"/>
       <c r="H407" s="12"/>
       <c r="I407" s="12"/>
@@ -21003,7 +21003,7 @@
       <c r="T407" s="15"/>
     </row>
     <row r="408" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F408" s="46"/>
+      <c r="F408" s="33"/>
       <c r="G408" s="12"/>
       <c r="H408" s="12"/>
       <c r="I408" s="12"/>
@@ -21020,7 +21020,7 @@
       <c r="T408" s="15"/>
     </row>
     <row r="409" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F409" s="46"/>
+      <c r="F409" s="33"/>
       <c r="G409" s="12"/>
       <c r="H409" s="12"/>
       <c r="I409" s="12"/>
@@ -21037,7 +21037,7 @@
       <c r="T409" s="15"/>
     </row>
     <row r="410" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F410" s="46"/>
+      <c r="F410" s="33"/>
       <c r="G410" s="12"/>
       <c r="H410" s="12"/>
       <c r="I410" s="12"/>
@@ -21054,7 +21054,7 @@
       <c r="T410" s="15"/>
     </row>
     <row r="411" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F411" s="46"/>
+      <c r="F411" s="33"/>
       <c r="G411" s="12"/>
       <c r="H411" s="12"/>
       <c r="I411" s="12"/>
@@ -21071,7 +21071,7 @@
       <c r="T411" s="15"/>
     </row>
     <row r="412" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F412" s="46"/>
+      <c r="F412" s="33"/>
       <c r="G412" s="12"/>
       <c r="H412" s="12"/>
       <c r="I412" s="12"/>
@@ -21088,7 +21088,7 @@
       <c r="T412" s="15"/>
     </row>
     <row r="413" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F413" s="46"/>
+      <c r="F413" s="33"/>
       <c r="G413" s="12"/>
       <c r="H413" s="12"/>
       <c r="I413" s="12"/>
@@ -21105,7 +21105,7 @@
       <c r="T413" s="15"/>
     </row>
     <row r="414" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F414" s="46"/>
+      <c r="F414" s="33"/>
       <c r="G414" s="12"/>
       <c r="H414" s="12"/>
       <c r="I414" s="12"/>
@@ -21122,7 +21122,7 @@
       <c r="T414" s="15"/>
     </row>
     <row r="415" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F415" s="46"/>
+      <c r="F415" s="33"/>
       <c r="G415" s="12"/>
       <c r="H415" s="12"/>
       <c r="I415" s="12"/>
@@ -21139,7 +21139,7 @@
       <c r="T415" s="15"/>
     </row>
     <row r="416" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F416" s="46"/>
+      <c r="F416" s="33"/>
       <c r="G416" s="12"/>
       <c r="H416" s="12"/>
       <c r="I416" s="12"/>
@@ -21156,7 +21156,7 @@
       <c r="T416" s="15"/>
     </row>
     <row r="417" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F417" s="46"/>
+      <c r="F417" s="33"/>
       <c r="G417" s="12"/>
       <c r="H417" s="12"/>
       <c r="I417" s="12"/>
@@ -21173,7 +21173,7 @@
       <c r="T417" s="15"/>
     </row>
     <row r="418" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F418" s="46"/>
+      <c r="F418" s="33"/>
       <c r="G418" s="12"/>
       <c r="H418" s="12"/>
       <c r="I418" s="12"/>
@@ -21190,7 +21190,7 @@
       <c r="T418" s="15"/>
     </row>
     <row r="419" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F419" s="46"/>
+      <c r="F419" s="33"/>
       <c r="G419" s="12"/>
       <c r="H419" s="12"/>
       <c r="I419" s="12"/>
@@ -21207,7 +21207,7 @@
       <c r="T419" s="15"/>
     </row>
     <row r="420" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F420" s="46"/>
+      <c r="F420" s="33"/>
       <c r="G420" s="12"/>
       <c r="H420" s="12"/>
       <c r="I420" s="12"/>
@@ -21224,7 +21224,7 @@
       <c r="T420" s="15"/>
     </row>
     <row r="421" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F421" s="46"/>
+      <c r="F421" s="33"/>
       <c r="G421" s="12"/>
       <c r="H421" s="12"/>
       <c r="I421" s="12"/>
@@ -21241,7 +21241,7 @@
       <c r="T421" s="15"/>
     </row>
     <row r="422" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F422" s="46"/>
+      <c r="F422" s="33"/>
       <c r="G422" s="12"/>
       <c r="H422" s="12"/>
       <c r="I422" s="12"/>
@@ -21258,7 +21258,7 @@
       <c r="T422" s="15"/>
     </row>
     <row r="423" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F423" s="46"/>
+      <c r="F423" s="33"/>
       <c r="G423" s="12"/>
       <c r="H423" s="12"/>
       <c r="I423" s="12"/>
@@ -21275,7 +21275,7 @@
       <c r="T423" s="15"/>
     </row>
     <row r="424" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F424" s="46"/>
+      <c r="F424" s="33"/>
       <c r="G424" s="12"/>
       <c r="H424" s="12"/>
       <c r="I424" s="12"/>
@@ -21292,7 +21292,7 @@
       <c r="T424" s="15"/>
     </row>
     <row r="425" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F425" s="46"/>
+      <c r="F425" s="33"/>
       <c r="G425" s="12"/>
       <c r="H425" s="12"/>
       <c r="I425" s="12"/>
@@ -21309,7 +21309,7 @@
       <c r="T425" s="15"/>
     </row>
     <row r="426" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F426" s="46"/>
+      <c r="F426" s="33"/>
       <c r="G426" s="12"/>
       <c r="H426" s="12"/>
       <c r="I426" s="12"/>
@@ -21326,7 +21326,7 @@
       <c r="T426" s="15"/>
     </row>
     <row r="427" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F427" s="46"/>
+      <c r="F427" s="33"/>
       <c r="G427" s="12"/>
       <c r="H427" s="12"/>
       <c r="I427" s="12"/>
@@ -21343,7 +21343,7 @@
       <c r="T427" s="15"/>
     </row>
     <row r="428" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F428" s="46"/>
+      <c r="F428" s="33"/>
       <c r="G428" s="12"/>
       <c r="H428" s="12"/>
       <c r="I428" s="12"/>
@@ -21360,7 +21360,7 @@
       <c r="T428" s="15"/>
     </row>
     <row r="429" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F429" s="46"/>
+      <c r="F429" s="33"/>
       <c r="G429" s="12"/>
       <c r="H429" s="12"/>
       <c r="I429" s="12"/>
@@ -21377,7 +21377,7 @@
       <c r="T429" s="15"/>
     </row>
     <row r="430" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F430" s="46"/>
+      <c r="F430" s="33"/>
       <c r="G430" s="12"/>
       <c r="H430" s="12"/>
       <c r="I430" s="12"/>
@@ -21394,7 +21394,7 @@
       <c r="T430" s="15"/>
     </row>
     <row r="431" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F431" s="46"/>
+      <c r="F431" s="33"/>
       <c r="G431" s="12"/>
       <c r="H431" s="12"/>
       <c r="I431" s="12"/>
@@ -21411,7 +21411,7 @@
       <c r="T431" s="15"/>
     </row>
     <row r="432" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F432" s="46"/>
+      <c r="F432" s="33"/>
       <c r="G432" s="12"/>
       <c r="H432" s="12"/>
       <c r="I432" s="12"/>
@@ -21428,7 +21428,7 @@
       <c r="T432" s="15"/>
     </row>
     <row r="433" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F433" s="46"/>
+      <c r="F433" s="33"/>
       <c r="G433" s="12"/>
       <c r="H433" s="12"/>
       <c r="I433" s="12"/>
@@ -21445,7 +21445,7 @@
       <c r="T433" s="15"/>
     </row>
     <row r="434" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F434" s="46"/>
+      <c r="F434" s="33"/>
       <c r="G434" s="12"/>
       <c r="H434" s="12"/>
       <c r="I434" s="12"/>
@@ -21462,7 +21462,7 @@
       <c r="T434" s="15"/>
     </row>
     <row r="435" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F435" s="46"/>
+      <c r="F435" s="33"/>
       <c r="G435" s="12"/>
       <c r="H435" s="12"/>
       <c r="I435" s="12"/>
@@ -21479,7 +21479,7 @@
       <c r="T435" s="15"/>
     </row>
     <row r="436" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F436" s="46"/>
+      <c r="F436" s="33"/>
       <c r="G436" s="12"/>
       <c r="H436" s="12"/>
       <c r="I436" s="12"/>
@@ -21496,7 +21496,7 @@
       <c r="T436" s="15"/>
     </row>
     <row r="437" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F437" s="46"/>
+      <c r="F437" s="33"/>
       <c r="G437" s="12"/>
       <c r="H437" s="12"/>
       <c r="I437" s="12"/>
@@ -21513,7 +21513,7 @@
       <c r="T437" s="15"/>
     </row>
     <row r="438" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F438" s="46"/>
+      <c r="F438" s="33"/>
       <c r="G438" s="12"/>
       <c r="H438" s="12"/>
       <c r="I438" s="12"/>
@@ -21530,7 +21530,7 @@
       <c r="T438" s="15"/>
     </row>
     <row r="439" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F439" s="46"/>
+      <c r="F439" s="33"/>
       <c r="G439" s="12"/>
       <c r="H439" s="12"/>
       <c r="I439" s="12"/>
@@ -21547,7 +21547,7 @@
       <c r="T439" s="15"/>
     </row>
     <row r="440" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F440" s="46"/>
+      <c r="F440" s="33"/>
       <c r="G440" s="12"/>
       <c r="H440" s="12"/>
       <c r="I440" s="12"/>
@@ -21564,7 +21564,7 @@
       <c r="T440" s="15"/>
     </row>
     <row r="441" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F441" s="46"/>
+      <c r="F441" s="33"/>
       <c r="G441" s="12"/>
       <c r="H441" s="12"/>
       <c r="I441" s="12"/>
@@ -21581,7 +21581,7 @@
       <c r="T441" s="15"/>
     </row>
     <row r="442" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F442" s="46"/>
+      <c r="F442" s="33"/>
       <c r="G442" s="12"/>
       <c r="H442" s="12"/>
       <c r="I442" s="12"/>
@@ -21598,7 +21598,7 @@
       <c r="T442" s="15"/>
     </row>
     <row r="443" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F443" s="46"/>
+      <c r="F443" s="33"/>
       <c r="G443" s="12"/>
       <c r="H443" s="12"/>
       <c r="I443" s="12"/>
@@ -21615,7 +21615,7 @@
       <c r="T443" s="15"/>
     </row>
     <row r="444" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F444" s="46"/>
+      <c r="F444" s="33"/>
       <c r="G444" s="12"/>
       <c r="H444" s="12"/>
       <c r="I444" s="12"/>
@@ -21632,7 +21632,7 @@
       <c r="T444" s="15"/>
     </row>
     <row r="445" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F445" s="46"/>
+      <c r="F445" s="33"/>
       <c r="G445" s="12"/>
       <c r="H445" s="12"/>
       <c r="I445" s="12"/>
@@ -21649,7 +21649,7 @@
       <c r="T445" s="15"/>
     </row>
     <row r="446" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F446" s="46"/>
+      <c r="F446" s="33"/>
       <c r="G446" s="12"/>
       <c r="H446" s="12"/>
       <c r="I446" s="12"/>
@@ -21666,7 +21666,7 @@
       <c r="T446" s="15"/>
     </row>
     <row r="447" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F447" s="46"/>
+      <c r="F447" s="33"/>
       <c r="G447" s="12"/>
       <c r="H447" s="12"/>
       <c r="I447" s="12"/>
@@ -21683,7 +21683,7 @@
       <c r="T447" s="15"/>
     </row>
     <row r="448" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F448" s="46"/>
+      <c r="F448" s="33"/>
       <c r="G448" s="12"/>
       <c r="H448" s="12"/>
       <c r="I448" s="12"/>
@@ -21700,7 +21700,7 @@
       <c r="T448" s="15"/>
     </row>
     <row r="449" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F449" s="46"/>
+      <c r="F449" s="33"/>
       <c r="G449" s="12"/>
       <c r="H449" s="12"/>
       <c r="I449" s="12"/>
@@ -21717,7 +21717,7 @@
       <c r="T449" s="15"/>
     </row>
     <row r="450" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F450" s="46"/>
+      <c r="F450" s="33"/>
       <c r="G450" s="12"/>
       <c r="H450" s="12"/>
       <c r="I450" s="12"/>
@@ -21734,7 +21734,7 @@
       <c r="T450" s="15"/>
     </row>
     <row r="451" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F451" s="46"/>
+      <c r="F451" s="33"/>
       <c r="G451" s="12"/>
       <c r="H451" s="12"/>
       <c r="I451" s="12"/>
@@ -21751,7 +21751,7 @@
       <c r="T451" s="15"/>
     </row>
     <row r="452" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F452" s="46"/>
+      <c r="F452" s="33"/>
       <c r="G452" s="12"/>
       <c r="H452" s="12"/>
       <c r="I452" s="12"/>
@@ -21768,7 +21768,7 @@
       <c r="T452" s="15"/>
     </row>
     <row r="453" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F453" s="46"/>
+      <c r="F453" s="33"/>
       <c r="G453" s="12"/>
       <c r="H453" s="12"/>
       <c r="I453" s="12"/>
@@ -21785,7 +21785,7 @@
       <c r="T453" s="15"/>
     </row>
     <row r="454" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F454" s="46"/>
+      <c r="F454" s="33"/>
       <c r="G454" s="12"/>
       <c r="H454" s="12"/>
       <c r="I454" s="12"/>
@@ -21802,7 +21802,7 @@
       <c r="T454" s="15"/>
     </row>
     <row r="455" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F455" s="46"/>
+      <c r="F455" s="33"/>
       <c r="G455" s="12"/>
       <c r="H455" s="12"/>
       <c r="I455" s="12"/>
@@ -21819,7 +21819,7 @@
       <c r="T455" s="15"/>
     </row>
     <row r="456" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F456" s="46"/>
+      <c r="F456" s="33"/>
       <c r="G456" s="12"/>
       <c r="H456" s="12"/>
       <c r="I456" s="12"/>
@@ -21836,7 +21836,7 @@
       <c r="T456" s="15"/>
     </row>
     <row r="457" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F457" s="46"/>
+      <c r="F457" s="33"/>
       <c r="G457" s="12"/>
       <c r="H457" s="12"/>
       <c r="I457" s="12"/>
@@ -21853,7 +21853,7 @@
       <c r="T457" s="15"/>
     </row>
     <row r="458" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F458" s="46"/>
+      <c r="F458" s="33"/>
       <c r="G458" s="12"/>
       <c r="H458" s="12"/>
       <c r="I458" s="12"/>
@@ -21870,7 +21870,7 @@
       <c r="T458" s="15"/>
     </row>
     <row r="459" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F459" s="46"/>
+      <c r="F459" s="33"/>
       <c r="G459" s="12"/>
       <c r="H459" s="12"/>
       <c r="I459" s="12"/>
@@ -21887,7 +21887,7 @@
       <c r="T459" s="15"/>
     </row>
     <row r="460" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F460" s="46"/>
+      <c r="F460" s="33"/>
       <c r="G460" s="12"/>
       <c r="H460" s="12"/>
       <c r="I460" s="12"/>
@@ -21904,7 +21904,7 @@
       <c r="T460" s="15"/>
     </row>
     <row r="461" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F461" s="46"/>
+      <c r="F461" s="33"/>
       <c r="G461" s="12"/>
       <c r="H461" s="12"/>
       <c r="I461" s="12"/>
@@ -21921,7 +21921,7 @@
       <c r="T461" s="15"/>
     </row>
     <row r="462" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F462" s="46"/>
+      <c r="F462" s="33"/>
       <c r="G462" s="12"/>
       <c r="H462" s="12"/>
       <c r="I462" s="12"/>
@@ -21938,7 +21938,7 @@
       <c r="T462" s="15"/>
     </row>
     <row r="463" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F463" s="46"/>
+      <c r="F463" s="33"/>
       <c r="G463" s="12"/>
       <c r="H463" s="12"/>
       <c r="I463" s="12"/>
@@ -21955,7 +21955,7 @@
       <c r="T463" s="15"/>
     </row>
     <row r="464" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F464" s="46"/>
+      <c r="F464" s="33"/>
       <c r="G464" s="12"/>
       <c r="H464" s="12"/>
       <c r="I464" s="12"/>
@@ -21972,7 +21972,7 @@
       <c r="T464" s="15"/>
     </row>
     <row r="465" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F465" s="46"/>
+      <c r="F465" s="33"/>
       <c r="G465" s="12"/>
       <c r="H465" s="12"/>
       <c r="I465" s="12"/>
@@ -21989,7 +21989,7 @@
       <c r="T465" s="15"/>
     </row>
     <row r="466" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F466" s="46"/>
+      <c r="F466" s="33"/>
       <c r="G466" s="12"/>
       <c r="H466" s="12"/>
       <c r="I466" s="12"/>
@@ -22006,7 +22006,7 @@
       <c r="T466" s="15"/>
     </row>
     <row r="467" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F467" s="46"/>
+      <c r="F467" s="33"/>
       <c r="G467" s="12"/>
       <c r="H467" s="12"/>
       <c r="I467" s="12"/>
@@ -22023,7 +22023,7 @@
       <c r="T467" s="15"/>
     </row>
     <row r="468" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F468" s="46"/>
+      <c r="F468" s="33"/>
       <c r="G468" s="12"/>
       <c r="H468" s="12"/>
       <c r="I468" s="12"/>
@@ -22040,7 +22040,7 @@
       <c r="T468" s="15"/>
     </row>
     <row r="469" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F469" s="46"/>
+      <c r="F469" s="33"/>
       <c r="G469" s="12"/>
       <c r="H469" s="12"/>
       <c r="I469" s="12"/>
@@ -22057,7 +22057,7 @@
       <c r="T469" s="15"/>
     </row>
     <row r="470" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F470" s="46"/>
+      <c r="F470" s="33"/>
       <c r="G470" s="12"/>
       <c r="H470" s="12"/>
       <c r="I470" s="12"/>
@@ -22074,7 +22074,7 @@
       <c r="T470" s="15"/>
     </row>
     <row r="471" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F471" s="46"/>
+      <c r="F471" s="33"/>
       <c r="G471" s="12"/>
       <c r="H471" s="12"/>
       <c r="I471" s="12"/>
@@ -22091,7 +22091,7 @@
       <c r="T471" s="15"/>
     </row>
     <row r="472" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F472" s="46"/>
+      <c r="F472" s="33"/>
       <c r="G472" s="12"/>
       <c r="H472" s="12"/>
       <c r="I472" s="12"/>
@@ -22108,7 +22108,7 @@
       <c r="T472" s="15"/>
     </row>
     <row r="473" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F473" s="46"/>
+      <c r="F473" s="33"/>
       <c r="G473" s="12"/>
       <c r="H473" s="12"/>
       <c r="I473" s="12"/>
@@ -22125,7 +22125,7 @@
       <c r="T473" s="15"/>
     </row>
     <row r="474" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F474" s="46"/>
+      <c r="F474" s="33"/>
       <c r="G474" s="12"/>
       <c r="H474" s="12"/>
       <c r="I474" s="12"/>
@@ -22142,7 +22142,7 @@
       <c r="T474" s="15"/>
     </row>
     <row r="475" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F475" s="46"/>
+      <c r="F475" s="33"/>
       <c r="G475" s="12"/>
       <c r="H475" s="12"/>
       <c r="I475" s="12"/>
@@ -22159,7 +22159,7 @@
       <c r="T475" s="15"/>
     </row>
     <row r="476" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F476" s="46"/>
+      <c r="F476" s="33"/>
       <c r="G476" s="12"/>
       <c r="H476" s="12"/>
       <c r="I476" s="12"/>
@@ -22176,7 +22176,7 @@
       <c r="T476" s="15"/>
     </row>
     <row r="477" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F477" s="46"/>
+      <c r="F477" s="33"/>
       <c r="G477" s="12"/>
       <c r="H477" s="12"/>
       <c r="I477" s="12"/>
@@ -22193,7 +22193,7 @@
       <c r="T477" s="15"/>
     </row>
     <row r="478" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F478" s="46"/>
+      <c r="F478" s="33"/>
       <c r="G478" s="12"/>
       <c r="H478" s="12"/>
       <c r="I478" s="12"/>
@@ -22210,7 +22210,7 @@
       <c r="T478" s="15"/>
     </row>
     <row r="479" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F479" s="46"/>
+      <c r="F479" s="33"/>
       <c r="G479" s="12"/>
       <c r="H479" s="12"/>
       <c r="I479" s="12"/>
@@ -22227,7 +22227,7 @@
       <c r="T479" s="15"/>
     </row>
     <row r="480" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F480" s="46"/>
+      <c r="F480" s="33"/>
       <c r="G480" s="12"/>
       <c r="H480" s="12"/>
       <c r="I480" s="12"/>
@@ -22244,7 +22244,7 @@
       <c r="T480" s="15"/>
     </row>
     <row r="481" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F481" s="46"/>
+      <c r="F481" s="33"/>
       <c r="G481" s="12"/>
       <c r="H481" s="12"/>
       <c r="I481" s="12"/>
@@ -22261,7 +22261,7 @@
       <c r="T481" s="15"/>
     </row>
     <row r="482" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F482" s="46"/>
+      <c r="F482" s="33"/>
       <c r="G482" s="12"/>
       <c r="H482" s="12"/>
       <c r="I482" s="12"/>
@@ -22278,7 +22278,7 @@
       <c r="T482" s="15"/>
     </row>
     <row r="483" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F483" s="46"/>
+      <c r="F483" s="33"/>
       <c r="G483" s="12"/>
       <c r="H483" s="12"/>
       <c r="I483" s="12"/>
@@ -22295,7 +22295,7 @@
       <c r="T483" s="15"/>
     </row>
     <row r="484" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F484" s="46"/>
+      <c r="F484" s="33"/>
       <c r="G484" s="12"/>
       <c r="H484" s="12"/>
       <c r="I484" s="12"/>
@@ -22312,7 +22312,7 @@
       <c r="T484" s="15"/>
     </row>
     <row r="485" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F485" s="46"/>
+      <c r="F485" s="33"/>
       <c r="G485" s="12"/>
       <c r="H485" s="12"/>
       <c r="I485" s="12"/>
@@ -22329,7 +22329,7 @@
       <c r="T485" s="15"/>
     </row>
     <row r="486" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F486" s="46"/>
+      <c r="F486" s="33"/>
       <c r="G486" s="12"/>
       <c r="H486" s="12"/>
       <c r="I486" s="12"/>
@@ -22346,7 +22346,7 @@
       <c r="T486" s="15"/>
     </row>
     <row r="487" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F487" s="46"/>
+      <c r="F487" s="33"/>
       <c r="G487" s="12"/>
       <c r="H487" s="12"/>
       <c r="I487" s="12"/>
@@ -22363,7 +22363,7 @@
       <c r="T487" s="15"/>
     </row>
     <row r="488" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F488" s="46"/>
+      <c r="F488" s="33"/>
       <c r="G488" s="12"/>
       <c r="H488" s="12"/>
       <c r="I488" s="12"/>
@@ -22380,7 +22380,7 @@
       <c r="T488" s="15"/>
     </row>
     <row r="489" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F489" s="46"/>
+      <c r="F489" s="33"/>
       <c r="G489" s="12"/>
       <c r="H489" s="12"/>
       <c r="I489" s="12"/>
@@ -22397,7 +22397,7 @@
       <c r="T489" s="15"/>
     </row>
     <row r="490" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F490" s="46"/>
+      <c r="F490" s="33"/>
       <c r="G490" s="12"/>
       <c r="H490" s="12"/>
       <c r="I490" s="12"/>
@@ -22414,7 +22414,7 @@
       <c r="T490" s="15"/>
     </row>
     <row r="491" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F491" s="46"/>
+      <c r="F491" s="33"/>
       <c r="G491" s="12"/>
       <c r="H491" s="12"/>
       <c r="I491" s="12"/>
@@ -22431,7 +22431,7 @@
       <c r="T491" s="15"/>
     </row>
     <row r="492" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F492" s="46"/>
+      <c r="F492" s="33"/>
       <c r="G492" s="12"/>
       <c r="H492" s="12"/>
       <c r="I492" s="12"/>
@@ -22448,7 +22448,7 @@
       <c r="T492" s="15"/>
     </row>
     <row r="493" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F493" s="46"/>
+      <c r="F493" s="33"/>
       <c r="G493" s="12"/>
       <c r="H493" s="12"/>
       <c r="I493" s="12"/>
@@ -22465,7 +22465,7 @@
       <c r="T493" s="15"/>
     </row>
     <row r="494" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F494" s="46"/>
+      <c r="F494" s="33"/>
       <c r="G494" s="12"/>
       <c r="H494" s="12"/>
       <c r="I494" s="12"/>
@@ -22482,7 +22482,7 @@
       <c r="T494" s="15"/>
     </row>
     <row r="495" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F495" s="46"/>
+      <c r="F495" s="33"/>
       <c r="G495" s="12"/>
       <c r="H495" s="12"/>
       <c r="I495" s="12"/>
@@ -22499,7 +22499,7 @@
       <c r="T495" s="15"/>
     </row>
     <row r="496" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F496" s="46"/>
+      <c r="F496" s="33"/>
       <c r="G496" s="12"/>
       <c r="H496" s="12"/>
       <c r="I496" s="12"/>
@@ -22516,7 +22516,7 @@
       <c r="T496" s="15"/>
     </row>
     <row r="497" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F497" s="46"/>
+      <c r="F497" s="33"/>
       <c r="G497" s="12"/>
       <c r="H497" s="12"/>
       <c r="I497" s="12"/>
@@ -22533,7 +22533,7 @@
       <c r="T497" s="15"/>
     </row>
     <row r="498" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F498" s="46"/>
+      <c r="F498" s="33"/>
       <c r="G498" s="12"/>
       <c r="H498" s="12"/>
       <c r="I498" s="12"/>
@@ -22550,7 +22550,7 @@
       <c r="T498" s="15"/>
     </row>
     <row r="499" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F499" s="46"/>
+      <c r="F499" s="33"/>
       <c r="G499" s="12"/>
       <c r="H499" s="12"/>
       <c r="I499" s="12"/>
@@ -22567,7 +22567,7 @@
       <c r="T499" s="15"/>
     </row>
     <row r="500" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F500" s="46"/>
+      <c r="F500" s="33"/>
       <c r="G500" s="12"/>
       <c r="H500" s="12"/>
       <c r="I500" s="12"/>
@@ -22584,7 +22584,7 @@
       <c r="T500" s="15"/>
     </row>
     <row r="501" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F501" s="46"/>
+      <c r="F501" s="33"/>
       <c r="G501" s="12"/>
       <c r="H501" s="12"/>
       <c r="I501" s="12"/>
@@ -22601,7 +22601,7 @@
       <c r="T501" s="15"/>
     </row>
     <row r="502" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F502" s="46"/>
+      <c r="F502" s="33"/>
       <c r="G502" s="12"/>
       <c r="H502" s="12"/>
       <c r="I502" s="12"/>
@@ -22618,7 +22618,7 @@
       <c r="T502" s="15"/>
     </row>
     <row r="503" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F503" s="46"/>
+      <c r="F503" s="33"/>
       <c r="G503" s="12"/>
       <c r="H503" s="12"/>
       <c r="I503" s="12"/>
@@ -22635,7 +22635,7 @@
       <c r="T503" s="15"/>
     </row>
     <row r="504" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F504" s="46"/>
+      <c r="F504" s="33"/>
       <c r="G504" s="12"/>
       <c r="H504" s="12"/>
       <c r="I504" s="12"/>
@@ -22652,7 +22652,7 @@
       <c r="T504" s="15"/>
     </row>
     <row r="505" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F505" s="46"/>
+      <c r="F505" s="33"/>
       <c r="G505" s="12"/>
       <c r="H505" s="12"/>
       <c r="I505" s="12"/>
@@ -22669,7 +22669,7 @@
       <c r="T505" s="15"/>
     </row>
     <row r="506" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F506" s="46"/>
+      <c r="F506" s="33"/>
       <c r="G506" s="12"/>
       <c r="H506" s="12"/>
       <c r="I506" s="12"/>
@@ -22686,7 +22686,7 @@
       <c r="T506" s="15"/>
     </row>
     <row r="507" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F507" s="46"/>
+      <c r="F507" s="33"/>
       <c r="G507" s="12"/>
       <c r="H507" s="12"/>
       <c r="I507" s="12"/>
@@ -22703,7 +22703,7 @@
       <c r="T507" s="15"/>
     </row>
     <row r="508" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F508" s="46"/>
+      <c r="F508" s="33"/>
       <c r="G508" s="12"/>
       <c r="H508" s="12"/>
       <c r="I508" s="12"/>
@@ -22720,7 +22720,7 @@
       <c r="T508" s="15"/>
     </row>
     <row r="509" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F509" s="46"/>
+      <c r="F509" s="33"/>
       <c r="G509" s="12"/>
       <c r="H509" s="12"/>
       <c r="I509" s="12"/>
@@ -22737,7 +22737,7 @@
       <c r="T509" s="15"/>
     </row>
     <row r="510" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F510" s="46"/>
+      <c r="F510" s="33"/>
       <c r="G510" s="12"/>
       <c r="H510" s="12"/>
       <c r="I510" s="12"/>
@@ -22754,7 +22754,7 @@
       <c r="T510" s="15"/>
     </row>
     <row r="511" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F511" s="46"/>
+      <c r="F511" s="33"/>
       <c r="G511" s="12"/>
       <c r="H511" s="12"/>
       <c r="I511" s="12"/>
@@ -22771,7 +22771,7 @@
       <c r="T511" s="15"/>
     </row>
     <row r="512" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F512" s="46"/>
+      <c r="F512" s="33"/>
       <c r="G512" s="12"/>
       <c r="H512" s="12"/>
       <c r="I512" s="12"/>
@@ -22788,7 +22788,7 @@
       <c r="T512" s="15"/>
     </row>
     <row r="513" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F513" s="46"/>
+      <c r="F513" s="33"/>
       <c r="G513" s="12"/>
       <c r="H513" s="12"/>
       <c r="I513" s="12"/>
@@ -22805,7 +22805,7 @@
       <c r="T513" s="15"/>
     </row>
     <row r="514" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F514" s="46"/>
+      <c r="F514" s="33"/>
       <c r="G514" s="12"/>
       <c r="H514" s="12"/>
       <c r="I514" s="12"/>
@@ -22822,7 +22822,7 @@
       <c r="T514" s="15"/>
     </row>
     <row r="515" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F515" s="46"/>
+      <c r="F515" s="33"/>
       <c r="G515" s="12"/>
       <c r="H515" s="12"/>
       <c r="I515" s="12"/>
@@ -22839,7 +22839,7 @@
       <c r="T515" s="15"/>
     </row>
     <row r="516" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F516" s="46"/>
+      <c r="F516" s="33"/>
       <c r="G516" s="12"/>
       <c r="H516" s="12"/>
       <c r="I516" s="12"/>
@@ -22856,7 +22856,7 @@
       <c r="T516" s="15"/>
     </row>
     <row r="517" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F517" s="46"/>
+      <c r="F517" s="33"/>
       <c r="G517" s="12"/>
       <c r="H517" s="12"/>
       <c r="I517" s="12"/>
@@ -22873,7 +22873,7 @@
       <c r="T517" s="15"/>
     </row>
     <row r="518" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F518" s="46"/>
+      <c r="F518" s="33"/>
       <c r="G518" s="12"/>
       <c r="H518" s="12"/>
       <c r="I518" s="12"/>
@@ -22890,7 +22890,7 @@
       <c r="T518" s="15"/>
     </row>
     <row r="519" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F519" s="46"/>
+      <c r="F519" s="33"/>
       <c r="G519" s="12"/>
       <c r="H519" s="12"/>
       <c r="I519" s="12"/>
@@ -22907,7 +22907,7 @@
       <c r="T519" s="15"/>
     </row>
     <row r="520" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F520" s="46"/>
+      <c r="F520" s="33"/>
       <c r="G520" s="12"/>
       <c r="H520" s="12"/>
       <c r="I520" s="12"/>
@@ -22924,7 +22924,7 @@
       <c r="T520" s="15"/>
     </row>
     <row r="521" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F521" s="46"/>
+      <c r="F521" s="33"/>
       <c r="G521" s="12"/>
       <c r="H521" s="12"/>
       <c r="I521" s="12"/>
@@ -22941,7 +22941,7 @@
       <c r="T521" s="15"/>
     </row>
     <row r="522" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F522" s="46"/>
+      <c r="F522" s="33"/>
       <c r="G522" s="12"/>
       <c r="H522" s="12"/>
       <c r="I522" s="12"/>
@@ -22958,7 +22958,7 @@
       <c r="T522" s="15"/>
     </row>
     <row r="523" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F523" s="46"/>
+      <c r="F523" s="33"/>
       <c r="G523" s="12"/>
       <c r="H523" s="12"/>
       <c r="I523" s="12"/>
@@ -22975,7 +22975,7 @@
       <c r="T523" s="15"/>
     </row>
     <row r="524" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F524" s="46"/>
+      <c r="F524" s="33"/>
       <c r="G524" s="12"/>
       <c r="H524" s="12"/>
       <c r="I524" s="12"/>
@@ -22992,7 +22992,7 @@
       <c r="T524" s="15"/>
     </row>
     <row r="525" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F525" s="46"/>
+      <c r="F525" s="33"/>
       <c r="G525" s="12"/>
       <c r="H525" s="12"/>
       <c r="I525" s="12"/>
@@ -23009,7 +23009,7 @@
       <c r="T525" s="15"/>
     </row>
     <row r="526" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F526" s="46"/>
+      <c r="F526" s="33"/>
       <c r="G526" s="12"/>
       <c r="H526" s="12"/>
       <c r="I526" s="12"/>
@@ -23026,7 +23026,7 @@
       <c r="T526" s="15"/>
     </row>
     <row r="527" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F527" s="46"/>
+      <c r="F527" s="33"/>
       <c r="G527" s="12"/>
       <c r="H527" s="12"/>
       <c r="I527" s="12"/>
@@ -23043,7 +23043,7 @@
       <c r="T527" s="15"/>
     </row>
     <row r="528" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F528" s="46"/>
+      <c r="F528" s="33"/>
       <c r="G528" s="12"/>
       <c r="H528" s="12"/>
       <c r="I528" s="12"/>
@@ -23060,7 +23060,7 @@
       <c r="T528" s="15"/>
     </row>
     <row r="529" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F529" s="46"/>
+      <c r="F529" s="33"/>
       <c r="G529" s="12"/>
       <c r="H529" s="12"/>
       <c r="I529" s="12"/>
@@ -23077,7 +23077,7 @@
       <c r="T529" s="15"/>
     </row>
     <row r="530" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F530" s="46"/>
+      <c r="F530" s="33"/>
       <c r="G530" s="12"/>
       <c r="H530" s="12"/>
       <c r="I530" s="12"/>
@@ -23094,7 +23094,7 @@
       <c r="T530" s="15"/>
     </row>
     <row r="531" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F531" s="46"/>
+      <c r="F531" s="33"/>
       <c r="G531" s="12"/>
       <c r="H531" s="12"/>
       <c r="I531" s="12"/>
@@ -23111,7 +23111,7 @@
       <c r="T531" s="15"/>
     </row>
     <row r="532" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F532" s="46"/>
+      <c r="F532" s="33"/>
       <c r="G532" s="12"/>
       <c r="H532" s="12"/>
       <c r="I532" s="12"/>
@@ -23128,7 +23128,7 @@
       <c r="T532" s="15"/>
     </row>
     <row r="533" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F533" s="46"/>
+      <c r="F533" s="33"/>
       <c r="G533" s="12"/>
       <c r="H533" s="12"/>
       <c r="I533" s="12"/>
@@ -23145,7 +23145,7 @@
       <c r="T533" s="15"/>
     </row>
     <row r="534" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F534" s="46"/>
+      <c r="F534" s="33"/>
       <c r="G534" s="12"/>
       <c r="H534" s="12"/>
       <c r="I534" s="12"/>
@@ -23162,7 +23162,7 @@
       <c r="T534" s="15"/>
     </row>
     <row r="535" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F535" s="46"/>
+      <c r="F535" s="33"/>
       <c r="G535" s="12"/>
       <c r="H535" s="12"/>
       <c r="I535" s="12"/>
@@ -23179,7 +23179,7 @@
       <c r="T535" s="15"/>
     </row>
     <row r="536" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F536" s="46"/>
+      <c r="F536" s="33"/>
       <c r="G536" s="12"/>
       <c r="H536" s="12"/>
       <c r="I536" s="12"/>
@@ -23196,7 +23196,7 @@
       <c r="T536" s="15"/>
     </row>
     <row r="537" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F537" s="46"/>
+      <c r="F537" s="33"/>
       <c r="G537" s="12"/>
       <c r="H537" s="12"/>
       <c r="I537" s="12"/>
@@ -23213,7 +23213,7 @@
       <c r="T537" s="15"/>
     </row>
     <row r="538" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F538" s="46"/>
+      <c r="F538" s="33"/>
       <c r="G538" s="12"/>
       <c r="H538" s="12"/>
       <c r="I538" s="12"/>
@@ -23230,7 +23230,7 @@
       <c r="T538" s="15"/>
     </row>
     <row r="539" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F539" s="46"/>
+      <c r="F539" s="33"/>
       <c r="G539" s="12"/>
       <c r="H539" s="12"/>
       <c r="I539" s="12"/>
@@ -23247,7 +23247,7 @@
       <c r="T539" s="15"/>
     </row>
     <row r="540" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F540" s="46"/>
+      <c r="F540" s="33"/>
       <c r="G540" s="12"/>
       <c r="H540" s="12"/>
       <c r="I540" s="12"/>
@@ -23264,7 +23264,7 @@
       <c r="T540" s="15"/>
     </row>
     <row r="541" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F541" s="46"/>
+      <c r="F541" s="33"/>
       <c r="G541" s="12"/>
       <c r="H541" s="12"/>
       <c r="I541" s="12"/>
@@ -23281,7 +23281,7 @@
       <c r="T541" s="15"/>
     </row>
     <row r="542" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F542" s="46"/>
+      <c r="F542" s="33"/>
       <c r="G542" s="12"/>
       <c r="H542" s="12"/>
       <c r="I542" s="12"/>
@@ -23298,7 +23298,7 @@
       <c r="T542" s="15"/>
     </row>
     <row r="543" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F543" s="46"/>
+      <c r="F543" s="33"/>
       <c r="G543" s="12"/>
       <c r="H543" s="12"/>
       <c r="I543" s="12"/>
@@ -23315,7 +23315,7 @@
       <c r="T543" s="15"/>
     </row>
     <row r="544" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F544" s="46"/>
+      <c r="F544" s="33"/>
       <c r="G544" s="12"/>
       <c r="H544" s="12"/>
       <c r="I544" s="12"/>
@@ -23332,7 +23332,7 @@
       <c r="T544" s="15"/>
     </row>
     <row r="545" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F545" s="46"/>
+      <c r="F545" s="33"/>
       <c r="G545" s="12"/>
       <c r="H545" s="12"/>
       <c r="I545" s="12"/>
@@ -23349,7 +23349,7 @@
       <c r="T545" s="15"/>
     </row>
     <row r="546" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F546" s="46"/>
+      <c r="F546" s="33"/>
       <c r="G546" s="12"/>
       <c r="H546" s="12"/>
       <c r="I546" s="12"/>
@@ -23366,7 +23366,7 @@
       <c r="T546" s="15"/>
     </row>
     <row r="547" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F547" s="46"/>
+      <c r="F547" s="33"/>
       <c r="G547" s="12"/>
       <c r="H547" s="12"/>
       <c r="I547" s="12"/>
@@ -23383,7 +23383,7 @@
       <c r="T547" s="15"/>
     </row>
     <row r="548" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F548" s="46"/>
+      <c r="F548" s="33"/>
       <c r="G548" s="12"/>
       <c r="H548" s="12"/>
       <c r="I548" s="12"/>
@@ -23400,7 +23400,7 @@
       <c r="T548" s="15"/>
     </row>
     <row r="549" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F549" s="46"/>
+      <c r="F549" s="33"/>
       <c r="G549" s="12"/>
       <c r="H549" s="12"/>
       <c r="I549" s="12"/>
@@ -23417,7 +23417,7 @@
       <c r="T549" s="15"/>
     </row>
     <row r="550" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F550" s="46"/>
+      <c r="F550" s="33"/>
       <c r="G550" s="12"/>
       <c r="H550" s="12"/>
       <c r="I550" s="12"/>
@@ -23434,7 +23434,7 @@
       <c r="T550" s="15"/>
     </row>
     <row r="551" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F551" s="46"/>
+      <c r="F551" s="33"/>
       <c r="G551" s="12"/>
       <c r="H551" s="12"/>
       <c r="I551" s="12"/>
@@ -23451,7 +23451,7 @@
       <c r="T551" s="15"/>
     </row>
     <row r="552" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F552" s="46"/>
+      <c r="F552" s="33"/>
       <c r="G552" s="12"/>
       <c r="H552" s="12"/>
       <c r="I552" s="12"/>
@@ -23468,7 +23468,7 @@
       <c r="T552" s="15"/>
     </row>
     <row r="553" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F553" s="46"/>
+      <c r="F553" s="33"/>
       <c r="G553" s="12"/>
       <c r="H553" s="12"/>
       <c r="I553" s="12"/>
@@ -23485,7 +23485,7 @@
       <c r="T553" s="15"/>
     </row>
     <row r="554" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F554" s="46"/>
+      <c r="F554" s="33"/>
       <c r="G554" s="12"/>
       <c r="H554" s="12"/>
       <c r="I554" s="12"/>
@@ -23502,7 +23502,7 @@
       <c r="T554" s="15"/>
     </row>
     <row r="555" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F555" s="46"/>
+      <c r="F555" s="33"/>
       <c r="G555" s="12"/>
       <c r="H555" s="12"/>
       <c r="I555" s="12"/>
@@ -23519,7 +23519,7 @@
       <c r="T555" s="15"/>
     </row>
     <row r="556" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F556" s="46"/>
+      <c r="F556" s="33"/>
       <c r="G556" s="12"/>
       <c r="H556" s="12"/>
       <c r="I556" s="12"/>
@@ -23536,7 +23536,7 @@
       <c r="T556" s="15"/>
     </row>
     <row r="557" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F557" s="46"/>
+      <c r="F557" s="33"/>
       <c r="G557" s="12"/>
       <c r="H557" s="12"/>
       <c r="I557" s="12"/>
@@ -23553,7 +23553,7 @@
       <c r="T557" s="15"/>
     </row>
     <row r="558" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F558" s="46"/>
+      <c r="F558" s="33"/>
       <c r="G558" s="12"/>
       <c r="H558" s="12"/>
       <c r="I558" s="12"/>
@@ -23570,7 +23570,7 @@
       <c r="T558" s="15"/>
     </row>
     <row r="559" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F559" s="46"/>
+      <c r="F559" s="33"/>
       <c r="G559" s="12"/>
       <c r="H559" s="12"/>
       <c r="I559" s="12"/>
@@ -23587,7 +23587,7 @@
       <c r="T559" s="15"/>
     </row>
     <row r="560" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F560" s="46"/>
+      <c r="F560" s="33"/>
       <c r="G560" s="12"/>
       <c r="H560" s="12"/>
       <c r="I560" s="12"/>
@@ -23604,7 +23604,7 @@
       <c r="T560" s="15"/>
     </row>
     <row r="561" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F561" s="46"/>
+      <c r="F561" s="33"/>
       <c r="G561" s="12"/>
       <c r="H561" s="12"/>
       <c r="I561" s="12"/>
@@ -23621,7 +23621,7 @@
       <c r="T561" s="15"/>
     </row>
     <row r="562" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F562" s="46"/>
+      <c r="F562" s="33"/>
       <c r="G562" s="12"/>
       <c r="H562" s="12"/>
       <c r="I562" s="12"/>
@@ -23638,7 +23638,7 @@
       <c r="T562" s="15"/>
     </row>
     <row r="563" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F563" s="46"/>
+      <c r="F563" s="33"/>
       <c r="G563" s="12"/>
       <c r="H563" s="12"/>
       <c r="I563" s="12"/>
@@ -23655,7 +23655,7 @@
       <c r="T563" s="15"/>
     </row>
     <row r="564" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F564" s="46"/>
+      <c r="F564" s="33"/>
       <c r="G564" s="12"/>
       <c r="H564" s="12"/>
       <c r="I564" s="12"/>
@@ -23672,7 +23672,7 @@
       <c r="T564" s="15"/>
     </row>
     <row r="565" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F565" s="46"/>
+      <c r="F565" s="33"/>
       <c r="G565" s="12"/>
       <c r="H565" s="12"/>
       <c r="I565" s="12"/>
@@ -23689,7 +23689,7 @@
       <c r="T565" s="15"/>
     </row>
     <row r="566" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F566" s="46"/>
+      <c r="F566" s="33"/>
       <c r="G566" s="12"/>
       <c r="H566" s="12"/>
       <c r="I566" s="12"/>
@@ -23706,7 +23706,7 @@
       <c r="T566" s="15"/>
     </row>
     <row r="567" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F567" s="46"/>
+      <c r="F567" s="33"/>
       <c r="G567" s="12"/>
       <c r="H567" s="12"/>
       <c r="I567" s="12"/>
@@ -23723,7 +23723,7 @@
       <c r="T567" s="15"/>
     </row>
     <row r="568" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F568" s="46"/>
+      <c r="F568" s="33"/>
       <c r="G568" s="12"/>
       <c r="H568" s="12"/>
       <c r="I568" s="12"/>
@@ -23740,7 +23740,7 @@
       <c r="T568" s="15"/>
     </row>
     <row r="569" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F569" s="46"/>
+      <c r="F569" s="33"/>
       <c r="G569" s="12"/>
       <c r="H569" s="12"/>
       <c r="I569" s="12"/>
@@ -23757,7 +23757,7 @@
       <c r="T569" s="15"/>
     </row>
     <row r="570" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F570" s="46"/>
+      <c r="F570" s="33"/>
       <c r="G570" s="12"/>
       <c r="H570" s="12"/>
       <c r="I570" s="12"/>
@@ -23774,7 +23774,7 @@
       <c r="T570" s="15"/>
     </row>
     <row r="571" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F571" s="46"/>
+      <c r="F571" s="33"/>
       <c r="G571" s="12"/>
       <c r="H571" s="12"/>
       <c r="I571" s="12"/>
@@ -23791,7 +23791,7 @@
       <c r="T571" s="15"/>
     </row>
     <row r="572" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F572" s="46"/>
+      <c r="F572" s="33"/>
       <c r="G572" s="12"/>
       <c r="H572" s="12"/>
       <c r="I572" s="12"/>
@@ -23808,7 +23808,7 @@
       <c r="T572" s="15"/>
     </row>
     <row r="573" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F573" s="46"/>
+      <c r="F573" s="33"/>
       <c r="G573" s="12"/>
       <c r="H573" s="12"/>
       <c r="I573" s="12"/>
@@ -23825,7 +23825,7 @@
       <c r="T573" s="15"/>
     </row>
     <row r="574" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F574" s="46"/>
+      <c r="F574" s="33"/>
       <c r="G574" s="12"/>
       <c r="H574" s="12"/>
       <c r="I574" s="12"/>
@@ -23842,7 +23842,7 @@
       <c r="T574" s="15"/>
     </row>
     <row r="575" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F575" s="46"/>
+      <c r="F575" s="33"/>
       <c r="G575" s="12"/>
       <c r="H575" s="12"/>
       <c r="I575" s="12"/>
@@ -23859,7 +23859,7 @@
       <c r="T575" s="15"/>
     </row>
     <row r="576" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F576" s="46"/>
+      <c r="F576" s="33"/>
       <c r="G576" s="12"/>
       <c r="H576" s="12"/>
       <c r="I576" s="12"/>
@@ -23876,7 +23876,7 @@
       <c r="T576" s="15"/>
     </row>
     <row r="577" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F577" s="46"/>
+      <c r="F577" s="33"/>
       <c r="G577" s="12"/>
       <c r="H577" s="12"/>
       <c r="I577" s="12"/>
@@ -23893,7 +23893,7 @@
       <c r="T577" s="15"/>
     </row>
     <row r="578" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F578" s="46"/>
+      <c r="F578" s="33"/>
       <c r="G578" s="12"/>
       <c r="H578" s="12"/>
       <c r="I578" s="12"/>
@@ -23910,7 +23910,7 @@
       <c r="T578" s="15"/>
     </row>
     <row r="579" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F579" s="46"/>
+      <c r="F579" s="33"/>
       <c r="G579" s="12"/>
       <c r="H579" s="12"/>
       <c r="I579" s="12"/>
@@ -23927,7 +23927,7 @@
       <c r="T579" s="15"/>
     </row>
     <row r="580" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F580" s="46"/>
+      <c r="F580" s="33"/>
       <c r="G580" s="12"/>
       <c r="H580" s="12"/>
       <c r="I580" s="12"/>
@@ -23944,7 +23944,7 @@
       <c r="T580" s="15"/>
     </row>
     <row r="581" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F581" s="46"/>
+      <c r="F581" s="33"/>
       <c r="G581" s="12"/>
       <c r="H581" s="12"/>
       <c r="I581" s="12"/>
@@ -23961,7 +23961,7 @@
       <c r="T581" s="15"/>
     </row>
     <row r="582" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F582" s="46"/>
+      <c r="F582" s="33"/>
       <c r="G582" s="12"/>
       <c r="H582" s="12"/>
       <c r="I582" s="12"/>
@@ -23978,7 +23978,7 @@
       <c r="T582" s="15"/>
     </row>
     <row r="583" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F583" s="46"/>
+      <c r="F583" s="33"/>
       <c r="G583" s="12"/>
       <c r="H583" s="12"/>
       <c r="I583" s="12"/>
@@ -28013,8 +28013,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C32EC9A05D1971488222CFA27FFA4ED2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34e05ffc1084b29f944ea637fb710d0d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70009556-3c69-4fa2-8706-c9b0b9b7d526" xmlns:ns3="51c831f1-5d9a-4441-8bf8-199ee50deca8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79232e178e164452271057d765f43da8" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C32EC9A05D1971488222CFA27FFA4ED2" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="97a78d7338b8fda28b9dfc09b371cc51">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70009556-3c69-4fa2-8706-c9b0b9b7d526" xmlns:ns3="51c831f1-5d9a-4441-8bf8-199ee50deca8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="290ea90884c48b0b14810663af41ea7e" ns2:_="" ns3:_="">
     <xsd:import namespace="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
     <xsd:import namespace="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
     <xsd:element name="properties">
@@ -28053,7 +28073,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="09c9e240-62b1-45b5-87c1-18b27c589dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="09c9e240-62b1-45b5-87c1-18b27c589dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -28097,7 +28117,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -28116,7 +28136,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -28133,8 +28153,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -28223,28 +28243,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD933AE8-14F9-4931-8177-6C9927CA99A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
+    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28256,18 +28269,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98871A2-F805-4FAF-9E60-50EE6EFC02CC}"/>
 </file>
--- a/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lispacloud.sharepoint.com/sites/FSE2.0-CDA2Vaccinazioni/Documenti condivisi/General/Accreditamento DTD/Accreditamento SSV/File per PULL REQUEST accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED84D3D-CED6-4039-980E-9D2BF9AFF49D}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30181D7C-2A8A-4E54-8693-F9B58CB58948}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4013,18 +4013,6 @@
     <t>subject_application_version: 2.0</t>
   </si>
   <si>
-    <t>9ad666a951b5cb60</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.eddefba9f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-18T15:16:16.269+00:00</t>
-  </si>
-  <si>
-    <t>6363796dcb4e4dde</t>
-  </si>
-  <si>
     <t>L'operatore di back office, tramite interfaccia di gestione e log analysis,  ha evidenza dell'errore e può intervenire nella risoluzione del problema. Terminata la correzione del problema  l'operatore ritrasmette il certificato vaccinale.</t>
   </si>
   <si>
@@ -4041,12 +4029,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2023-12-18T15:26:04.689+00:00</t>
-  </si>
-  <si>
-    <t>81d93f2d0ccab23a</t>
-  </si>
-  <si>
     <t>2023-12-18T11:19:37.981+00:00</t>
   </si>
   <si>
@@ -4065,9 +4047,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.fad7be92b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-12-18T12:10:55.934+00:00</t>
-  </si>
-  <si>
     <t>2023-12-18T11:25:06.715+00:00</t>
   </si>
   <si>
@@ -4194,31 +4173,52 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.eec4913d13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-01-03T11:52:23.921+00:00</t>
-  </si>
-  <si>
-    <t>87320e680988f6e4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.091dc0e3b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-03T11:53:26.746+00:00</t>
-  </si>
-  <si>
-    <t>fd1cb1a90434c51d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.a36eab34c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-03T11:54:33.355+00:00</t>
-  </si>
-  <si>
-    <t>afab8d7e85ebdf21</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.2c799fed53^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-01-10T14:45:57.408+00:00</t>
+  </si>
+  <si>
+    <t>c851239910d8bbf3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.84585ab23d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:13:33.113+00:00</t>
+  </si>
+  <si>
+    <t>d37546905d03867c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.6418d26719^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:15:00.873+00:00</t>
+  </si>
+  <si>
+    <t>f1261f66ecc52153</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.8ae7bcb2b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-10T16:16:41.375+00:00</t>
+  </si>
+  <si>
+    <t>a5fcbc49c62fba1c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.3d41a43d5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-10T13:58:18.834+00:00</t>
+  </si>
+  <si>
+    <t>f4698d8a27e32784</t>
+  </si>
+  <si>
+    <t>2024-01-10T14:03:26.253+00:00</t>
+  </si>
+  <si>
+    <t>81004dd24c2bddb4</t>
   </si>
 </sst>
 </file>
@@ -7195,11 +7195,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -8051,13 +8051,13 @@
         <v>45278</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>125</v>
@@ -8097,13 +8097,13 @@
         <v>45278</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>125</v>
@@ -8123,7 +8123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="130.5">
+    <row r="29" spans="1:20" ht="131" thickBot="1">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -8143,13 +8143,13 @@
         <v>45278</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>125</v>
@@ -8189,13 +8189,13 @@
         <v>45278</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>125</v>
@@ -8575,13 +8575,13 @@
         <v>45278</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>841</v>
+        <v>904</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>842</v>
+        <v>905</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>125</v>
@@ -8598,7 +8598,7 @@
         <v>125</v>
       </c>
       <c r="P41" s="39" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>832</v>
@@ -8860,13 +8860,13 @@
         <v>45278</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>849</v>
+        <v>907</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>125</v>
@@ -8883,7 +8883,7 @@
         <v>125</v>
       </c>
       <c r="P49" s="39" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q49" s="25" t="s">
         <v>832</v>
@@ -9177,13 +9177,13 @@
         <v>834</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O57" s="25" t="s">
         <v>125</v>
       </c>
       <c r="P57" s="39" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="Q57" s="25" t="s">
         <v>832</v>
@@ -11122,13 +11122,13 @@
         <v>45278</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>125</v>
@@ -11145,7 +11145,7 @@
         <v>125</v>
       </c>
       <c r="P114" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q114" s="25" t="s">
         <v>832</v>
@@ -11176,13 +11176,13 @@
         <v>45278</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="J115" s="25" t="s">
         <v>125</v>
@@ -11199,7 +11199,7 @@
         <v>125</v>
       </c>
       <c r="P115" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q115" s="25" t="s">
         <v>832</v>
@@ -11230,13 +11230,13 @@
         <v>45278</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="J116" s="25" t="s">
         <v>125</v>
@@ -11253,7 +11253,7 @@
         <v>125</v>
       </c>
       <c r="P116" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q116" s="25" t="s">
         <v>832</v>
@@ -11284,13 +11284,13 @@
         <v>45278</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="J117" s="25" t="s">
         <v>125</v>
@@ -11307,7 +11307,7 @@
         <v>125</v>
       </c>
       <c r="P117" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q117" s="25" t="s">
         <v>832</v>
@@ -11338,13 +11338,13 @@
         <v>45278</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>125</v>
@@ -11361,7 +11361,7 @@
         <v>125</v>
       </c>
       <c r="P118" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q118" s="25" t="s">
         <v>832</v>
@@ -11392,13 +11392,13 @@
         <v>45278</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="J119" s="25" t="s">
         <v>125</v>
@@ -11415,7 +11415,7 @@
         <v>125</v>
       </c>
       <c r="P119" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q119" s="25" t="s">
         <v>832</v>
@@ -11446,13 +11446,13 @@
         <v>45278</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="J120" s="25" t="s">
         <v>125</v>
@@ -11469,7 +11469,7 @@
         <v>125</v>
       </c>
       <c r="P120" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q120" s="25" t="s">
         <v>832</v>
@@ -11500,13 +11500,13 @@
         <v>45278</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="J121" s="25" t="s">
         <v>125</v>
@@ -11523,7 +11523,7 @@
         <v>125</v>
       </c>
       <c r="P121" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q121" s="25" t="s">
         <v>832</v>
@@ -11554,13 +11554,13 @@
         <v>45278</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="J122" s="25" t="s">
         <v>125</v>
@@ -11577,7 +11577,7 @@
         <v>125</v>
       </c>
       <c r="P122" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q122" s="25" t="s">
         <v>832</v>
@@ -11608,13 +11608,13 @@
         <v>45278</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="J123" s="25" t="s">
         <v>125</v>
@@ -11631,7 +11631,7 @@
         <v>125</v>
       </c>
       <c r="P123" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q123" s="25" t="s">
         <v>832</v>
@@ -11662,13 +11662,13 @@
         <v>45278</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="J124" s="25" t="s">
         <v>125</v>
@@ -11685,7 +11685,7 @@
         <v>125</v>
       </c>
       <c r="P124" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q124" s="25" t="s">
         <v>832</v>
@@ -11716,13 +11716,13 @@
         <v>45278</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="J125" s="25" t="s">
         <v>125</v>
@@ -11739,7 +11739,7 @@
         <v>125</v>
       </c>
       <c r="P125" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q125" s="25" t="s">
         <v>832</v>
@@ -11770,13 +11770,13 @@
         <v>45278</v>
       </c>
       <c r="G126" s="37" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="I126" s="37" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J126" s="25" t="s">
         <v>125</v>
@@ -11793,7 +11793,7 @@
         <v>125</v>
       </c>
       <c r="P126" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q126" s="25" t="s">
         <v>832</v>
@@ -11824,13 +11824,13 @@
         <v>45278</v>
       </c>
       <c r="G127" s="37" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="J127" s="25" t="s">
         <v>125</v>
@@ -11847,7 +11847,7 @@
         <v>125</v>
       </c>
       <c r="P127" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q127" s="25" t="s">
         <v>832</v>
@@ -11878,13 +11878,13 @@
         <v>45278</v>
       </c>
       <c r="G128" s="37" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="J128" s="25" t="s">
         <v>125</v>
@@ -11901,7 +11901,7 @@
         <v>125</v>
       </c>
       <c r="P128" s="39" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Q128" s="25" t="s">
         <v>832</v>
@@ -20432,13 +20432,13 @@
         <v>45278</v>
       </c>
       <c r="G379" s="37" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="H379" s="37" t="s">
-        <v>839</v>
+        <v>893</v>
       </c>
       <c r="I379" s="37" t="s">
-        <v>840</v>
+        <v>894</v>
       </c>
       <c r="J379" s="25" t="s">
         <v>125</v>
@@ -28013,6 +28013,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
@@ -28021,15 +28030,6 @@
     <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28244,23 +28244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
-    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D75C08-C001-43D7-A040-A10302DB5A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -28268,6 +28251,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98871A2-F805-4FAF-9E60-50EE6EFC02CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1F9772-4EAF-43B8-A60B-300E90945F65}"/>
 </file>
--- a/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/2.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lispacloud.sharepoint.com/sites/FSE2.0-CDA2Vaccinazioni/Documenti condivisi/General/Accreditamento DTD/Accreditamento SSV/File per PULL REQUEST accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC5664D-AED4-4FCA-8146-811EA90FC704}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{70C6FD49-DAA8-467B-BCAC-758DA5AEF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16334D69-B2FD-45AD-9A45-087A94FDEF94}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4200,18 +4200,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.3d41a43d5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-01-10T13:58:18.834+00:00</t>
-  </si>
-  <si>
-    <t>f4698d8a27e32784</t>
-  </si>
-  <si>
-    <t>2024-01-10T14:03:26.253+00:00</t>
-  </si>
-  <si>
-    <t>81004dd24c2bddb4</t>
-  </si>
-  <si>
     <t>2024-01-11T17:43:59.485+00:00</t>
   </si>
   <si>
@@ -4219,6 +4207,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.85a76195345b7d3995a5823f10311bc48872c28e435457fa9080bd4c5787468a.036e01c5bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-18T11:38:03.658+00:00</t>
+  </si>
+  <si>
+    <t>a71baec98ff07557</t>
+  </si>
+  <si>
+    <t>2024-01-18T11:42:09.081+00:00</t>
+  </si>
+  <si>
+    <t>f15fe489694f8792</t>
   </si>
 </sst>
 </file>
@@ -7196,10 +7196,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -8051,13 +8051,13 @@
         <v>45278</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>125</v>
@@ -8575,10 +8575,10 @@
         <v>45278</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I41" s="38" t="s">
         <v>843</v>
@@ -8860,10 +8860,10 @@
         <v>45278</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>843</v>
@@ -28013,26 +28013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C32EC9A05D1971488222CFA27FFA4ED2" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="97a78d7338b8fda28b9dfc09b371cc51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70009556-3c69-4fa2-8706-c9b0b9b7d526" xmlns:ns3="51c831f1-5d9a-4441-8bf8-199ee50deca8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="290ea90884c48b0b14810663af41ea7e" ns2:_="" ns3:_="">
     <xsd:import namespace="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
@@ -28243,21 +28223,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1197C8-3146-495A-BD45-5390F40B4DE2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28269,5 +28256,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18412807-3417-4A17-BF15-E53E9891234F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BEF563-E4AD-40C2-827A-1FB1D700DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>